--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -85,16 +94,7 @@
     <t>Tnfrsf1b</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H2">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N2">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O2">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P2">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q2">
-        <v>19.48678826781356</v>
+        <v>2.037696899915223</v>
       </c>
       <c r="R2">
-        <v>19.48678826781356</v>
+        <v>18.339272099237</v>
       </c>
       <c r="S2">
-        <v>0.01498490511603312</v>
+        <v>0.001233515680652635</v>
       </c>
       <c r="T2">
-        <v>0.01498490511603312</v>
+        <v>0.001233515680652635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H3">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N3">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O3">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P3">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q3">
-        <v>31.92390220733727</v>
+        <v>2.238853891356445</v>
       </c>
       <c r="R3">
-        <v>31.92390220733727</v>
+        <v>20.149685022208</v>
       </c>
       <c r="S3">
-        <v>0.02454876806459722</v>
+        <v>0.001355285656955774</v>
       </c>
       <c r="T3">
-        <v>0.02454876806459722</v>
+        <v>0.001355285656955774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H4">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N4">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O4">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P4">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q4">
-        <v>279.7813129323554</v>
+        <v>21.78612253597945</v>
       </c>
       <c r="R4">
-        <v>279.7813129323554</v>
+        <v>196.075102823815</v>
       </c>
       <c r="S4">
-        <v>0.2151455832491024</v>
+        <v>0.01318818503864263</v>
       </c>
       <c r="T4">
-        <v>0.2151455832491024</v>
+        <v>0.01318818503864263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H5">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N5">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O5">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P5">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q5">
-        <v>324.7854530286219</v>
+        <v>22.83674268194956</v>
       </c>
       <c r="R5">
-        <v>324.7854530286219</v>
+        <v>205.530684137546</v>
       </c>
       <c r="S5">
-        <v>0.2497527622209753</v>
+        <v>0.01382417581063507</v>
       </c>
       <c r="T5">
-        <v>0.2497527622209753</v>
+        <v>0.01382417581063507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H6">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N6">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O6">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P6">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q6">
-        <v>640.221159382821</v>
+        <v>45.501687879218</v>
       </c>
       <c r="R6">
-        <v>640.221159382821</v>
+        <v>409.515190912962</v>
       </c>
       <c r="S6">
-        <v>0.4923157779917064</v>
+        <v>0.02754435436276734</v>
       </c>
       <c r="T6">
-        <v>0.4923157779917064</v>
+        <v>0.02754435436276734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,1165 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>3.31294935927952</v>
+        <v>0.2316776666666667</v>
       </c>
       <c r="H7">
-        <v>3.31294935927952</v>
+        <v>0.695033</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.05734977095011434</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N7">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O7">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P7">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q7">
-        <v>4.229255890671902</v>
+        <v>0.3374165121216667</v>
       </c>
       <c r="R7">
-        <v>4.229255890671902</v>
+        <v>3.036748609095</v>
       </c>
       <c r="S7">
-        <v>0.003252203357585582</v>
+        <v>0.0002042544004608889</v>
       </c>
       <c r="T7">
-        <v>0.003252203357585582</v>
+        <v>0.0002042544004608889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.28584</v>
+      </c>
+      <c r="I8">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J8">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.795396333333334</v>
+      </c>
+      <c r="N8">
+        <v>26.386189</v>
+      </c>
+      <c r="O8">
+        <v>0.02150864179955676</v>
+      </c>
+      <c r="P8">
+        <v>0.02150864179955676</v>
+      </c>
+      <c r="Q8">
+        <v>0.83802536264</v>
+      </c>
+      <c r="R8">
+        <v>7.54222826376</v>
+      </c>
+      <c r="S8">
+        <v>0.0005072969515947433</v>
+      </c>
+      <c r="T8">
+        <v>0.0005072969515947434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.28584</v>
+      </c>
+      <c r="I9">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J9">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.663658666666668</v>
+      </c>
+      <c r="N9">
+        <v>28.990976</v>
+      </c>
+      <c r="O9">
+        <v>0.02363192798336837</v>
+      </c>
+      <c r="P9">
+        <v>0.02363192798336838</v>
+      </c>
+      <c r="Q9">
+        <v>0.9207533977600001</v>
+      </c>
+      <c r="R9">
+        <v>8.28678057984</v>
+      </c>
+      <c r="S9">
+        <v>0.0005573761996685601</v>
+      </c>
+      <c r="T9">
+        <v>0.0005573761996685602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.28584</v>
+      </c>
+      <c r="I10">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J10">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>94.03635166666668</v>
+      </c>
+      <c r="N10">
+        <v>282.109055</v>
+      </c>
+      <c r="O10">
+        <v>0.2299605529395115</v>
+      </c>
+      <c r="P10">
+        <v>0.2299605529395115</v>
+      </c>
+      <c r="Q10">
+        <v>8.9597835868</v>
+      </c>
+      <c r="R10">
+        <v>80.6380522812</v>
+      </c>
+      <c r="S10">
+        <v>0.005423786800692353</v>
+      </c>
+      <c r="T10">
+        <v>0.005423786800692353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.28584</v>
+      </c>
+      <c r="I11">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J11">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>98.57118733333334</v>
+      </c>
+      <c r="N11">
+        <v>295.713562</v>
+      </c>
+      <c r="O11">
+        <v>0.2410502358005932</v>
+      </c>
+      <c r="P11">
+        <v>0.2410502358005932</v>
+      </c>
+      <c r="Q11">
+        <v>9.39186272912</v>
+      </c>
+      <c r="R11">
+        <v>84.52676456208</v>
+      </c>
+      <c r="S11">
+        <v>0.005685345032123552</v>
+      </c>
+      <c r="T11">
+        <v>0.005685345032123553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.28584</v>
+      </c>
+      <c r="I12">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J12">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>196.400838</v>
+      </c>
+      <c r="N12">
+        <v>589.202514</v>
+      </c>
+      <c r="O12">
+        <v>0.4802870858320739</v>
+      </c>
+      <c r="P12">
+        <v>0.4802870858320739</v>
+      </c>
+      <c r="Q12">
+        <v>18.71307184464</v>
+      </c>
+      <c r="R12">
+        <v>168.41764660176</v>
+      </c>
+      <c r="S12">
+        <v>0.01132792004272231</v>
+      </c>
+      <c r="T12">
+        <v>0.01132792004272231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.09527999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.28584</v>
+      </c>
+      <c r="I13">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="J13">
+        <v>0.02358572690560115</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.456405</v>
+      </c>
+      <c r="N13">
+        <v>4.369215</v>
+      </c>
+      <c r="O13">
+        <v>0.003561555644896288</v>
+      </c>
+      <c r="P13">
+        <v>0.003561555644896289</v>
+      </c>
+      <c r="Q13">
+        <v>0.1387662684</v>
+      </c>
+      <c r="R13">
+        <v>1.2488964156</v>
+      </c>
+      <c r="S13">
+        <v>8.400187879962603E-05</v>
+      </c>
+      <c r="T13">
+        <v>8.400187879962604E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J14">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.795396333333334</v>
+      </c>
+      <c r="N14">
+        <v>26.386189</v>
+      </c>
+      <c r="O14">
+        <v>0.02150864179955676</v>
+      </c>
+      <c r="P14">
+        <v>0.02150864179955676</v>
+      </c>
+      <c r="Q14">
+        <v>2.513782908042223</v>
+      </c>
+      <c r="R14">
+        <v>22.62404617238</v>
+      </c>
+      <c r="S14">
+        <v>0.001521713378940543</v>
+      </c>
+      <c r="T14">
+        <v>0.001521713378940543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J15">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.663658666666668</v>
+      </c>
+      <c r="N15">
+        <v>28.990976</v>
+      </c>
+      <c r="O15">
+        <v>0.02363192798336837</v>
+      </c>
+      <c r="P15">
+        <v>0.02363192798336838</v>
+      </c>
+      <c r="Q15">
+        <v>2.761938071324445</v>
+      </c>
+      <c r="R15">
+        <v>24.85744264192001</v>
+      </c>
+      <c r="S15">
+        <v>0.00167193360313398</v>
+      </c>
+      <c r="T15">
+        <v>0.00167193360313398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J16">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>94.03635166666668</v>
+      </c>
+      <c r="N16">
+        <v>282.109055</v>
+      </c>
+      <c r="O16">
+        <v>0.2299605529395115</v>
+      </c>
+      <c r="P16">
+        <v>0.2299605529395115</v>
+      </c>
+      <c r="Q16">
+        <v>26.87621621534445</v>
+      </c>
+      <c r="R16">
+        <v>241.8859459381</v>
+      </c>
+      <c r="S16">
+        <v>0.01626946291159263</v>
+      </c>
+      <c r="T16">
+        <v>0.01626946291159263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J17">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>98.57118733333334</v>
+      </c>
+      <c r="N17">
+        <v>295.713562</v>
+      </c>
+      <c r="O17">
+        <v>0.2410502358005932</v>
+      </c>
+      <c r="P17">
+        <v>0.2410502358005932</v>
+      </c>
+      <c r="Q17">
+        <v>28.17230248111556</v>
+      </c>
+      <c r="R17">
+        <v>253.55072233004</v>
+      </c>
+      <c r="S17">
+        <v>0.01705404610076748</v>
+      </c>
+      <c r="T17">
+        <v>0.01705404610076748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J18">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>196.400838</v>
+      </c>
+      <c r="N18">
+        <v>589.202514</v>
+      </c>
+      <c r="O18">
+        <v>0.4802870858320739</v>
+      </c>
+      <c r="P18">
+        <v>0.4802870858320739</v>
+      </c>
+      <c r="Q18">
+        <v>56.13266883932</v>
+      </c>
+      <c r="R18">
+        <v>505.19401955388</v>
+      </c>
+      <c r="S18">
+        <v>0.03397979709988443</v>
+      </c>
+      <c r="T18">
+        <v>0.03397979709988444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2858066666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.8574200000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="J19">
+        <v>0.07074892934299097</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.456405</v>
+      </c>
+      <c r="N19">
+        <v>4.369215</v>
+      </c>
+      <c r="O19">
+        <v>0.003561555644896288</v>
+      </c>
+      <c r="P19">
+        <v>0.003561555644896289</v>
+      </c>
+      <c r="Q19">
+        <v>0.4162502583666667</v>
+      </c>
+      <c r="R19">
+        <v>3.7462523253</v>
+      </c>
+      <c r="S19">
+        <v>0.0002519762486718981</v>
+      </c>
+      <c r="T19">
+        <v>0.0002519762486718982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.426967</v>
+      </c>
+      <c r="H20">
+        <v>10.280901</v>
+      </c>
+      <c r="I20">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J20">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.795396333333334</v>
+      </c>
+      <c r="N20">
+        <v>26.386189</v>
+      </c>
+      <c r="O20">
+        <v>0.02150864179955676</v>
+      </c>
+      <c r="P20">
+        <v>0.02150864179955676</v>
+      </c>
+      <c r="Q20">
+        <v>30.14153298625434</v>
+      </c>
+      <c r="R20">
+        <v>271.273796876289</v>
+      </c>
+      <c r="S20">
+        <v>0.01824611578836884</v>
+      </c>
+      <c r="T20">
+        <v>0.01824611578836884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.426967</v>
+      </c>
+      <c r="H21">
+        <v>10.280901</v>
+      </c>
+      <c r="I21">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J21">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.663658666666668</v>
+      </c>
+      <c r="N21">
+        <v>28.990976</v>
+      </c>
+      <c r="O21">
+        <v>0.02363192798336837</v>
+      </c>
+      <c r="P21">
+        <v>0.02363192798336838</v>
+      </c>
+      <c r="Q21">
+        <v>33.11703934993067</v>
+      </c>
+      <c r="R21">
+        <v>298.053354149376</v>
+      </c>
+      <c r="S21">
+        <v>0.02004733252361006</v>
+      </c>
+      <c r="T21">
+        <v>0.02004733252361006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.426967</v>
+      </c>
+      <c r="H22">
+        <v>10.280901</v>
+      </c>
+      <c r="I22">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J22">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>94.03635166666668</v>
+      </c>
+      <c r="N22">
+        <v>282.109055</v>
+      </c>
+      <c r="O22">
+        <v>0.2299605529395115</v>
+      </c>
+      <c r="P22">
+        <v>0.2299605529395115</v>
+      </c>
+      <c r="Q22">
+        <v>322.2594739620617</v>
+      </c>
+      <c r="R22">
+        <v>2900.335265658555</v>
+      </c>
+      <c r="S22">
+        <v>0.1950791181885839</v>
+      </c>
+      <c r="T22">
+        <v>0.1950791181885839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.426967</v>
+      </c>
+      <c r="H23">
+        <v>10.280901</v>
+      </c>
+      <c r="I23">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J23">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>98.57118733333334</v>
+      </c>
+      <c r="N23">
+        <v>295.713562</v>
+      </c>
+      <c r="O23">
+        <v>0.2410502358005932</v>
+      </c>
+      <c r="P23">
+        <v>0.2410502358005932</v>
+      </c>
+      <c r="Q23">
+        <v>337.8002061421514</v>
+      </c>
+      <c r="R23">
+        <v>3040.201855279362</v>
+      </c>
+      <c r="S23">
+        <v>0.2044866688570671</v>
+      </c>
+      <c r="T23">
+        <v>0.2044866688570671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.426967</v>
+      </c>
+      <c r="H24">
+        <v>10.280901</v>
+      </c>
+      <c r="I24">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J24">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>196.400838</v>
+      </c>
+      <c r="N24">
+        <v>589.202514</v>
+      </c>
+      <c r="O24">
+        <v>0.4802870858320739</v>
+      </c>
+      <c r="P24">
+        <v>0.4802870858320739</v>
+      </c>
+      <c r="Q24">
+        <v>673.0591905983459</v>
+      </c>
+      <c r="R24">
+        <v>6057.532715385114</v>
+      </c>
+      <c r="S24">
+        <v>0.4074350143266998</v>
+      </c>
+      <c r="T24">
+        <v>0.4074350143266998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.426967</v>
+      </c>
+      <c r="H25">
+        <v>10.280901</v>
+      </c>
+      <c r="I25">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="J25">
+        <v>0.8483155728012935</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.456405</v>
+      </c>
+      <c r="N25">
+        <v>4.369215</v>
+      </c>
+      <c r="O25">
+        <v>0.003561555644896288</v>
+      </c>
+      <c r="P25">
+        <v>0.003561555644896289</v>
+      </c>
+      <c r="Q25">
+        <v>4.991051873635</v>
+      </c>
+      <c r="R25">
+        <v>44.919466862715</v>
+      </c>
+      <c r="S25">
+        <v>0.003021323116963875</v>
+      </c>
+      <c r="T25">
+        <v>0.003021323116963876</v>
       </c>
     </row>
   </sheetData>
